--- a/Recette/Cahier de recette.xlsx
+++ b/Recette/Cahier de recette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxence Vdk\Desktop\Programmation\Projets\Projet .NET - IT-Telefaune\IT - Telefaune\Recette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D2C9FB-D73E-4C1D-917A-EE3685F6B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0EEBD-33F0-4CA6-B1D6-918494AE21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B706848-AE6E-40E2-9954-A872400D8CD7}"/>
   </bookViews>
@@ -548,68 +548,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -721,6 +660,46 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -743,12 +722,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B623C16-C372-4174-8801-AC0C59591F49}" name="Tableau1" displayName="Tableau1" ref="B8:G79" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B8:G79" xr:uid="{6B623C16-C372-4174-8801-AC0C59591F49}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B38A009C-627A-4004-B654-FFA3AA291604}" name="Etat" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{254D2680-8DCB-4C5F-B84D-6F3353D92D04}" name="Catégorie" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{925AE420-C24D-44B4-9273-5552F1D49481}" name="Spécification" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D7AC0374-FECB-4FA5-A5DF-856F3C7876D9}" name="Test effectué" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A6271349-4A86-4775-84FF-0CED01A27CD4}" name="Résultat attendu" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{AE6C6E3B-D1B9-425A-8482-BC2923D1A389}" name="Commentaire" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B38A009C-627A-4004-B654-FFA3AA291604}" name="Etat" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{254D2680-8DCB-4C5F-B84D-6F3353D92D04}" name="Catégorie" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{925AE420-C24D-44B4-9273-5552F1D49481}" name="Spécification" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D7AC0374-FECB-4FA5-A5DF-856F3C7876D9}" name="Test effectué" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A6271349-4A86-4775-84FF-0CED01A27CD4}" name="Résultat attendu" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AE6C6E3B-D1B9-425A-8482-BC2923D1A389}" name="Commentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1053,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373267F7-FD28-46F2-9A92-91F8A9D830FE}">
   <dimension ref="B2:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,16 +1051,16 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3201,13 +3180,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B8:B79">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"FIX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
